--- a/pandasStudy/data.xlsx
+++ b/pandasStudy/data.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>

--- a/pandasStudy/data.xlsx
+++ b/pandasStudy/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,18 @@
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.Google.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pandasStudy/data.xlsx
+++ b/pandasStudy/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,18 +496,6 @@
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.Google.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
